--- a/suppliers/anothercompany222/supplier.xlsx
+++ b/suppliers/anothercompany222/supplier.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adrianrentea/Desktop/generate-invoice/furnizori/anothercompany/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adrianrentea/Documents/GitHub/invoicing-app/suppliers/anothercompany222/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{984D5FAE-59EE-FF49-8F4C-9A97AF91E8AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C181D96-0919-0D4D-AF8E-596FCCB5C4E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="27640" windowHeight="15900" xr2:uid="{CB570BF5-8DF4-9B4D-997E-E805A1D9601E}"/>
+    <workbookView xWindow="780" yWindow="520" windowWidth="27640" windowHeight="15900" xr2:uid="{CB570BF5-8DF4-9B4D-997E-E805A1D9601E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>CIF</t>
   </si>
@@ -70,13 +70,19 @@
   </si>
   <si>
     <t xml:space="preserve">RO71INGB00009999122118 </t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>adrianrentea01@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -95,6 +101,14 @@
       <color indexed="62"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color rgb="FF0066CC"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -117,10 +131,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -435,10 +450,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{372BB633-41A5-E841-8692-3FF565AF51A2}">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="G1" sqref="G1:G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -449,9 +464,10 @@
     <col min="4" max="4" width="57.83203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="35.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="27" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -470,8 +486,11 @@
       <c r="F1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -490,23 +509,26 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G2" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
     </row>
   </sheetData>
